--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2382.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2382.xlsx
@@ -348,13 +348,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.9191895421183293</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2382.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2382.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.904957115650177</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.703638553619385</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.830562829971313</v>
       </c>
       <c r="D1">
-        <v>0.9191895421183293</v>
+        <v>3.807269096374512</v>
       </c>
       <c r="E1">
-        <v>0.6997819852692801</v>
+        <v>1.206142783164978</v>
       </c>
     </row>
   </sheetData>
